--- a/SSR WORKBOOKS/August 4-10, 2025.xlsx
+++ b/SSR WORKBOOKS/August 4-10, 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\NEW\SSR\SSR WORKBOOKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA9D4B7-DBA3-425F-96CE-E70903891FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1089F5-3EBE-48BD-9FFD-CA2D95F23B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85AB1746-0000-48C6-BA47-A3EEA7429D42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0FF14A8-36AE-4E04-A631-3A800E361DAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 4-Aug 10,2025 " sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>MMMM</t>
   </si>
@@ -409,12 +409,6 @@
   </si>
   <si>
     <t>ALVENDIA, EDUARDO</t>
-  </si>
-  <si>
-    <t>CIMACIO, JAY AR A.</t>
-  </si>
-  <si>
-    <t>PROJECT NURSE</t>
   </si>
   <si>
     <t xml:space="preserve">AQUINO, BRYAN </t>
@@ -1450,7 +1444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FD49308B-04AB-4673-8093-674F0ECB8C21}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{55166B18-84A4-498F-8A09-BA2F70B87E13}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1574,7 +1568,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD87C3C-76CF-4DAF-ADEE-EAB4E20CF455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FA2B93-F79B-40D4-A0C5-D49EC54E03BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1587,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9044B5E0-B442-2FA2-8F82-CC24CFE0D7E9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F92F1D-8BD3-E880-9360-E5A94286D9E0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1644,7 +1638,7 @@
           <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C08DAB2-729B-A92F-156C-4B103BD337A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF7F2B6-474D-297B-1713-5A1A0FD821D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2262,14 +2256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D43536-2DEA-477B-A570-C743C3C9603F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE45B3-F89D-4996-A180-2BAA76F82493}">
   <sheetPr>
     <tabColor rgb="FFCEE7FF"/>
   </sheetPr>
   <dimension ref="A1:AD340"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A231" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64:Q64"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A213" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q239" sqref="Q239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11119,20 +11113,16 @@
     <row r="242" spans="1:25" s="77" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="27"/>
-      <c r="C242" s="104">
+      <c r="C242" s="104" t="str">
         <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="D242" s="105" t="s">
-        <v>96</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D242" s="105"/>
       <c r="E242" s="105"/>
       <c r="F242" s="105"/>
       <c r="G242" s="105"/>
       <c r="H242" s="105"/>
-      <c r="I242" s="106" t="s">
-        <v>97</v>
-      </c>
+      <c r="I242" s="106"/>
       <c r="J242" s="106"/>
       <c r="K242" s="106"/>
       <c r="L242" s="10"/>
@@ -11449,7 +11439,7 @@
       <c r="B254" s="27"/>
       <c r="C254" s="72" t="str">
         <f>IFERROR("EHS " &amp; D239 &amp; " TOTAL:  " &amp; COUNT(C240:C253),"N/A")</f>
-        <v>EHS STAFF TOTAL:  3</v>
+        <v>EHS STAFF TOTAL:  2</v>
       </c>
       <c r="D254" s="72"/>
       <c r="E254" s="72"/>
@@ -11530,14 +11520,14 @@
         <v>1</v>
       </c>
       <c r="D257" s="105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E257" s="105"/>
       <c r="F257" s="105"/>
       <c r="G257" s="105"/>
       <c r="H257" s="105"/>
       <c r="I257" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J257" s="109"/>
       <c r="K257" s="109"/>
@@ -11560,14 +11550,14 @@
         <v>2</v>
       </c>
       <c r="D258" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E258" s="105"/>
       <c r="F258" s="105"/>
       <c r="G258" s="105"/>
       <c r="H258" s="105"/>
       <c r="I258" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J258" s="109"/>
       <c r="K258" s="109"/>
@@ -11590,14 +11580,14 @@
         <v>3</v>
       </c>
       <c r="D259" s="105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E259" s="105"/>
       <c r="F259" s="105"/>
       <c r="G259" s="105"/>
       <c r="H259" s="105"/>
       <c r="I259" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J259" s="109"/>
       <c r="K259" s="109"/>
@@ -11620,14 +11610,14 @@
         <v>4</v>
       </c>
       <c r="D260" s="105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E260" s="105"/>
       <c r="F260" s="105"/>
       <c r="G260" s="105"/>
       <c r="H260" s="105"/>
       <c r="I260" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J260" s="109"/>
       <c r="K260" s="109"/>
@@ -11650,14 +11640,14 @@
         <v>5</v>
       </c>
       <c r="D261" s="105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E261" s="105"/>
       <c r="F261" s="105"/>
       <c r="G261" s="105"/>
       <c r="H261" s="105"/>
       <c r="I261" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J261" s="109"/>
       <c r="K261" s="109"/>
@@ -11680,14 +11670,14 @@
         <v>6</v>
       </c>
       <c r="D262" s="105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E262" s="105"/>
       <c r="F262" s="105"/>
       <c r="G262" s="105"/>
       <c r="H262" s="105"/>
       <c r="I262" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J262" s="109"/>
       <c r="K262" s="109"/>
@@ -11710,14 +11700,14 @@
         <v>7</v>
       </c>
       <c r="D263" s="105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E263" s="105"/>
       <c r="F263" s="105"/>
       <c r="G263" s="105"/>
       <c r="H263" s="105"/>
       <c r="I263" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J263" s="109"/>
       <c r="K263" s="109"/>
@@ -11740,14 +11730,14 @@
         <v>8</v>
       </c>
       <c r="D264" s="105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E264" s="105"/>
       <c r="F264" s="105"/>
       <c r="G264" s="105"/>
       <c r="H264" s="105"/>
       <c r="I264" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J264" s="109"/>
       <c r="K264" s="109"/>
@@ -11770,14 +11760,14 @@
         <v>9</v>
       </c>
       <c r="D265" s="105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E265" s="105"/>
       <c r="F265" s="105"/>
       <c r="G265" s="105"/>
       <c r="H265" s="105"/>
       <c r="I265" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J265" s="109"/>
       <c r="K265" s="109"/>
@@ -11800,14 +11790,14 @@
         <v>10</v>
       </c>
       <c r="D266" s="105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E266" s="105"/>
       <c r="F266" s="105"/>
       <c r="G266" s="105"/>
       <c r="H266" s="105"/>
       <c r="I266" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J266" s="109"/>
       <c r="K266" s="109"/>
@@ -11830,14 +11820,14 @@
         <v>11</v>
       </c>
       <c r="D267" s="105" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E267" s="105"/>
       <c r="F267" s="105"/>
       <c r="G267" s="105"/>
       <c r="H267" s="105"/>
       <c r="I267" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J267" s="109"/>
       <c r="K267" s="109"/>
@@ -11860,14 +11850,14 @@
         <v>12</v>
       </c>
       <c r="D268" s="105" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E268" s="105"/>
       <c r="F268" s="105"/>
       <c r="G268" s="105"/>
       <c r="H268" s="105"/>
       <c r="I268" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J268" s="109"/>
       <c r="K268" s="109"/>
@@ -12164,7 +12154,7 @@
     <row r="280" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C280" s="57"/>
       <c r="D280" s="57"/>
@@ -12185,7 +12175,7 @@
       <c r="A281" s="27"/>
       <c r="B281" s="17"/>
       <c r="C281" s="110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D281" s="110"/>
       <c r="E281" s="110"/>
@@ -12211,17 +12201,17 @@
       <c r="A282" s="27"/>
       <c r="B282" s="17"/>
       <c r="C282" s="62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D282" s="62"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G282" s="62"/>
       <c r="H282" s="62"/>
       <c r="I282" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J282" s="62"/>
       <c r="K282" s="62"/>
@@ -12466,7 +12456,7 @@
     <row r="295" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C295" s="57"/>
       <c r="D295" s="57"/>
@@ -12488,16 +12478,16 @@
       <c r="A296" s="111"/>
       <c r="B296" s="112"/>
       <c r="C296" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D296" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E296" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="D296" s="113" t="s">
+      <c r="F296" s="114" t="s">
         <v>117</v>
-      </c>
-      <c r="E296" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="F296" s="114" t="s">
-        <v>119</v>
       </c>
       <c r="G296" s="113">
         <f>SUMIF($J$298:$K1142,C296,$H$298:$I1142)</f>
@@ -12535,7 +12525,7 @@
       <c r="A297" s="27"/>
       <c r="B297" s="27"/>
       <c r="C297" s="103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D297" s="120" t="s">
         <v>64</v>
@@ -12544,11 +12534,11 @@
       <c r="F297" s="120"/>
       <c r="G297" s="120"/>
       <c r="H297" s="121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I297" s="121"/>
       <c r="J297" s="121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K297" s="121"/>
       <c r="L297" s="27"/>
@@ -12996,7 +12986,7 @@
       <c r="L317" s="128"/>
       <c r="M317" s="128"/>
       <c r="N317" s="128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O317" s="28"/>
     </row>
@@ -13089,7 +13079,7 @@
       <c r="A323" s="27"/>
       <c r="B323" s="17"/>
       <c r="C323" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D323" s="27"/>
       <c r="E323" s="27"/>
@@ -13097,7 +13087,7 @@
       <c r="G323" s="17"/>
       <c r="H323" s="17"/>
       <c r="I323" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J323" s="27"/>
       <c r="K323" s="27"/>
@@ -13144,7 +13134,7 @@
       <c r="A326" s="27"/>
       <c r="B326" s="17"/>
       <c r="C326" s="130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D326" s="130"/>
       <c r="E326" s="130"/>
@@ -13152,7 +13142,7 @@
       <c r="G326" s="17"/>
       <c r="H326" s="17"/>
       <c r="I326" s="131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J326" s="131"/>
       <c r="K326" s="131"/>
@@ -13165,7 +13155,7 @@
       <c r="A327" s="27"/>
       <c r="B327" s="17"/>
       <c r="C327" s="132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D327" s="132"/>
       <c r="E327" s="132"/>
@@ -13173,7 +13163,7 @@
       <c r="G327" s="17"/>
       <c r="H327" s="17"/>
       <c r="I327" s="132" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J327" s="132"/>
       <c r="K327" s="132"/>
@@ -13721,13 +13711,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{9582B76C-4D39-483E-A8EA-CCC90AF7A1D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{DB956257-4963-4979-8A1E-5C8FC1FCADCF}">
       <formula1>"OPERATIONAL, UNDER MAINTENANCE, OUT OF SERVICE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{52C1CB3E-811F-4270-95D6-A661666C02B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{49DC35DC-0C76-4FAE-ACDC-DB399BA9ED70}">
       <formula1>OFFSET($B$1,0,0,SUMPRODUCT(--(LEN(B1:B53)&gt;0)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{178DCA94-F77B-4F7F-879C-C4608A0B18FB}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{256EA2BD-0A01-4268-8782-F12F1FA0E673}">
       <formula1>OFFSET($P$1,0,0,SUMPRODUCT(--(LEN(P1:P53)&gt;0)),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/SSR WORKBOOKS/August 4-10, 2025.xlsx
+++ b/SSR WORKBOOKS/August 4-10, 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\NEW\SSR\SSR WORKBOOKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1089F5-3EBE-48BD-9FFD-CA2D95F23B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1C042C-B97C-424A-9795-49D97F9B289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0FF14A8-36AE-4E04-A631-3A800E361DAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81AC3871-D2B8-4913-B79B-ECCE19684CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 4-Aug 10,2025 " sheetId="2" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{55166B18-84A4-498F-8A09-BA2F70B87E13}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9B7AE9BA-86FA-49FA-A50E-2AA4A02CB50D}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FA2B93-F79B-40D4-A0C5-D49EC54E03BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1840FEE5-7AB1-40E2-9DA0-ED3D58C9C36A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F92F1D-8BD3-E880-9360-E5A94286D9E0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F21870-41B7-4398-5F5C-49575DE3EF1B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
           <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF7F2B6-474D-297B-1713-5A1A0FD821D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833CB2B2-85EF-5D36-8082-273E13CB4340}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2256,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE45B3-F89D-4996-A180-2BAA76F82493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1FA04C-89EA-4A93-9322-76EF6E60A68C}">
   <sheetPr>
     <tabColor rgb="FFCEE7FF"/>
   </sheetPr>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="E14" s="15">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
@@ -13711,13 +13711,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{DB956257-4963-4979-8A1E-5C8FC1FCADCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{80103D11-A6F5-4BAA-B996-6C5AB9CA4D1E}">
       <formula1>"OPERATIONAL, UNDER MAINTENANCE, OUT OF SERVICE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{49DC35DC-0C76-4FAE-ACDC-DB399BA9ED70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{EC780A00-9C04-45CD-9EEE-42307E4DA3A4}">
       <formula1>OFFSET($B$1,0,0,SUMPRODUCT(--(LEN(B1:B53)&gt;0)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{256EA2BD-0A01-4268-8782-F12F1FA0E673}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{0632A9E8-FC89-45A7-B1F8-095B109ED084}">
       <formula1>OFFSET($P$1,0,0,SUMPRODUCT(--(LEN(P1:P53)&gt;0)),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/SSR WORKBOOKS/August 4-10, 2025.xlsx
+++ b/SSR WORKBOOKS/August 4-10, 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\NEW\SSR\SSR WORKBOOKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1C042C-B97C-424A-9795-49D97F9B289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAABCD8-1106-444E-AE66-6C9CB71986C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81AC3871-D2B8-4913-B79B-ECCE19684CB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{830E4A6A-2742-4B75-BA77-B00BCC019372}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 4-Aug 10,2025 " sheetId="2" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9B7AE9BA-86FA-49FA-A50E-2AA4A02CB50D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{90FDCA8D-BE92-40A3-B115-94ECCE5EFE12}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1840FEE5-7AB1-40E2-9DA0-ED3D58C9C36A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F323E6B0-75CB-4868-99BE-A717D101E154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F21870-41B7-4398-5F5C-49575DE3EF1B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864BA4C5-C481-453F-7DA6-463F735415D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
           <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833CB2B2-85EF-5D36-8082-273E13CB4340}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C96200B-3BBE-89DE-6A51-5C2CB0E3E1BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2256,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1FA04C-89EA-4A93-9322-76EF6E60A68C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A388776B-17F8-4DF2-8D69-B08C676AD231}">
   <sheetPr>
     <tabColor rgb="FFCEE7FF"/>
   </sheetPr>
@@ -13711,13 +13711,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{80103D11-A6F5-4BAA-B996-6C5AB9CA4D1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{2B8F2FB9-5252-403F-947F-FD0CA72B0191}">
       <formula1>"OPERATIONAL, UNDER MAINTENANCE, OUT OF SERVICE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{EC780A00-9C04-45CD-9EEE-42307E4DA3A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{6D06A23C-1910-4239-80A4-90A90C2C391A}">
       <formula1>OFFSET($B$1,0,0,SUMPRODUCT(--(LEN(B1:B53)&gt;0)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{0632A9E8-FC89-45A7-B1F8-095B109ED084}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{710A1430-A776-40A8-96D8-881F4017A316}">
       <formula1>OFFSET($P$1,0,0,SUMPRODUCT(--(LEN(P1:P53)&gt;0)),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/SSR WORKBOOKS/August 4-10, 2025.xlsx
+++ b/SSR WORKBOOKS/August 4-10, 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\NEW\SSR\SSR WORKBOOKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAABCD8-1106-444E-AE66-6C9CB71986C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34143C9B-2DEF-407A-B196-99A99C1C1427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{830E4A6A-2742-4B75-BA77-B00BCC019372}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26DAA325-EB65-4F69-9C18-3F9D0D0F9CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 4-Aug 10,2025 " sheetId="2" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{90FDCA8D-BE92-40A3-B115-94ECCE5EFE12}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{175C047B-0B46-4B24-B653-E335407092A6}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F323E6B0-75CB-4868-99BE-A717D101E154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F767855C-300D-4E08-83C6-34AC85DE4E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864BA4C5-C481-453F-7DA6-463F735415D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFDE25E-8E98-1CCF-5A15-66F422D31CB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
           <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C96200B-3BBE-89DE-6A51-5C2CB0E3E1BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686D1386-57AA-088D-E1EB-57F7819CBA38}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2256,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A388776B-17F8-4DF2-8D69-B08C676AD231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38522D-FEF4-4842-8912-456B376603F7}">
   <sheetPr>
     <tabColor rgb="FFCEE7FF"/>
   </sheetPr>
@@ -13711,13 +13711,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{2B8F2FB9-5252-403F-947F-FD0CA72B0191}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J298:K316" xr:uid="{C66C4A50-4FB2-443F-92EC-60252A3F9CFD}">
       <formula1>"OPERATIONAL, UNDER MAINTENANCE, OUT OF SERVICE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{6D06A23C-1910-4239-80A4-90A90C2C391A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q56:S56" xr:uid="{0E0FE7C5-0F93-4C1C-AD8A-81EBFD75E791}">
       <formula1>OFFSET($B$1,0,0,SUMPRODUCT(--(LEN(B1:B53)&gt;0)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{710A1430-A776-40A8-96D8-881F4017A316}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P56" xr:uid="{D0DA3DE9-BCDE-4A05-8AC9-83ED072D1921}">
       <formula1>OFFSET($P$1,0,0,SUMPRODUCT(--(LEN(P1:P53)&gt;0)),1)</formula1>
     </dataValidation>
   </dataValidations>
